--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.33882037536764</v>
+        <v>1.454188</v>
       </c>
       <c r="H2">
-        <v>1.33882037536764</v>
+        <v>4.362564</v>
       </c>
       <c r="I2">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J2">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>128.6232388238</v>
+        <v>142.563596</v>
       </c>
       <c r="N2">
-        <v>128.6232388238</v>
+        <v>427.690788</v>
       </c>
       <c r="O2">
-        <v>0.936391469104905</v>
+        <v>0.9315318106005318</v>
       </c>
       <c r="P2">
-        <v>0.936391469104905</v>
+        <v>0.9315318106005319</v>
       </c>
       <c r="Q2">
-        <v>172.2034128830815</v>
+        <v>207.314270540048</v>
       </c>
       <c r="R2">
-        <v>172.2034128830815</v>
+        <v>1865.828434860432</v>
       </c>
       <c r="S2">
-        <v>0.01028814729432069</v>
+        <v>0.01064665456448818</v>
       </c>
       <c r="T2">
-        <v>0.01028814729432069</v>
+        <v>0.01064665456448818</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.33882037536764</v>
+        <v>1.454188</v>
       </c>
       <c r="H3">
-        <v>1.33882037536764</v>
+        <v>4.362564</v>
       </c>
       <c r="I3">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J3">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.416215301444109</v>
+        <v>0.4502283333333333</v>
       </c>
       <c r="N3">
-        <v>0.416215301444109</v>
+        <v>1.350685</v>
       </c>
       <c r="O3">
-        <v>0.003030093637410986</v>
+        <v>0.002941859116219682</v>
       </c>
       <c r="P3">
-        <v>0.003030093637410986</v>
+        <v>0.002941859116219682</v>
       </c>
       <c r="Q3">
-        <v>0.5572375261131575</v>
+        <v>0.6547166395933333</v>
       </c>
       <c r="R3">
-        <v>0.5572375261131575</v>
+        <v>5.89244975634</v>
       </c>
       <c r="S3">
-        <v>3.32916848196699E-05</v>
+        <v>3.362306840341793E-05</v>
       </c>
       <c r="T3">
-        <v>3.32916848196699E-05</v>
+        <v>3.362306840341793E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.33882037536764</v>
+        <v>1.454188</v>
       </c>
       <c r="H4">
-        <v>1.33882037536764</v>
+        <v>4.362564</v>
       </c>
       <c r="I4">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J4">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8208683018731761</v>
+        <v>1.398212333333333</v>
       </c>
       <c r="N4">
-        <v>0.8208683018731761</v>
+        <v>4.194637</v>
       </c>
       <c r="O4">
-        <v>0.005976012438822547</v>
+        <v>0.009136128037020016</v>
       </c>
       <c r="P4">
-        <v>0.005976012438822547</v>
+        <v>0.009136128037020014</v>
       </c>
       <c r="Q4">
-        <v>1.098995208041243</v>
+        <v>2.033263596585333</v>
       </c>
       <c r="R4">
-        <v>1.098995208041243</v>
+        <v>18.299372369268</v>
       </c>
       <c r="S4">
-        <v>6.565853943764522E-05</v>
+        <v>0.0001044185482022143</v>
       </c>
       <c r="T4">
-        <v>6.565853943764522E-05</v>
+        <v>0.0001044185482022143</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.33882037536764</v>
+        <v>1.454188</v>
       </c>
       <c r="H5">
-        <v>1.33882037536764</v>
+        <v>4.362564</v>
       </c>
       <c r="I5">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J5">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.90212473111223</v>
+        <v>2.666884333333333</v>
       </c>
       <c r="N5">
-        <v>1.90212473111223</v>
+        <v>8.000653</v>
       </c>
       <c r="O5">
-        <v>0.01384767937485165</v>
+        <v>0.01742582020512581</v>
       </c>
       <c r="P5">
-        <v>0.01384767937485165</v>
+        <v>0.0174258202051258</v>
       </c>
       <c r="Q5">
-        <v>2.546603346503747</v>
+        <v>3.878151194921334</v>
       </c>
       <c r="R5">
-        <v>2.546603346503747</v>
+        <v>34.903360754292</v>
       </c>
       <c r="S5">
-        <v>0.0001521446636300353</v>
+        <v>0.0001991630195722992</v>
       </c>
       <c r="T5">
-        <v>0.0001521446636300353</v>
+        <v>0.0001991630195722991</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.33882037536764</v>
+        <v>1.454188</v>
       </c>
       <c r="H6">
-        <v>1.33882037536764</v>
+        <v>4.362564</v>
       </c>
       <c r="I6">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J6">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.50975091545606</v>
+        <v>3.688331</v>
       </c>
       <c r="N6">
-        <v>3.50975091545606</v>
+        <v>11.064993</v>
       </c>
       <c r="O6">
-        <v>0.02555137660946587</v>
+        <v>0.02410010515253888</v>
       </c>
       <c r="P6">
-        <v>0.02555137660946587</v>
+        <v>0.02410010515253888</v>
       </c>
       <c r="Q6">
-        <v>4.698926038077801</v>
+        <v>5.363526680228</v>
       </c>
       <c r="R6">
-        <v>4.698926038077801</v>
+        <v>48.271740122052</v>
       </c>
       <c r="S6">
-        <v>0.0002807333629193868</v>
+        <v>0.000275444694005146</v>
       </c>
       <c r="T6">
-        <v>0.0002807333629193868</v>
+        <v>0.000275444694005146</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.33882037536764</v>
+        <v>1.454188</v>
       </c>
       <c r="H7">
-        <v>1.33882037536764</v>
+        <v>4.362564</v>
       </c>
       <c r="I7">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J7">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.08834296878114</v>
+        <v>2.274860333333333</v>
       </c>
       <c r="N7">
-        <v>2.08834296878114</v>
+        <v>6.824581</v>
       </c>
       <c r="O7">
-        <v>0.015203368834544</v>
+        <v>0.01486427688856368</v>
       </c>
       <c r="P7">
-        <v>0.015203368834544</v>
+        <v>0.01486427688856368</v>
       </c>
       <c r="Q7">
-        <v>2.795916117359938</v>
+        <v>3.308074598409333</v>
       </c>
       <c r="R7">
-        <v>2.795916117359938</v>
+        <v>29.772671385684</v>
       </c>
       <c r="S7">
-        <v>0.0001670396443158433</v>
+        <v>0.0001698866529114237</v>
       </c>
       <c r="T7">
-        <v>0.0001670396443158433</v>
+        <v>0.0001698866529114237</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.3414438221035</v>
+        <v>22.79785</v>
       </c>
       <c r="H8">
-        <v>22.3414438221035</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I8">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J8">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>128.6232388238</v>
+        <v>142.563596</v>
       </c>
       <c r="N8">
-        <v>128.6232388238</v>
+        <v>427.690788</v>
       </c>
       <c r="O8">
-        <v>0.936391469104905</v>
+        <v>0.9315318106005318</v>
       </c>
       <c r="P8">
-        <v>0.936391469104905</v>
+        <v>0.9315318106005319</v>
       </c>
       <c r="Q8">
-        <v>2873.62886439893</v>
+        <v>3250.143477068599</v>
       </c>
       <c r="R8">
-        <v>2873.62886439893</v>
+        <v>29251.2912936174</v>
       </c>
       <c r="S8">
-        <v>0.1716825266768698</v>
+        <v>0.1669115917357431</v>
       </c>
       <c r="T8">
-        <v>0.1716825266768698</v>
+        <v>0.1669115917357431</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.3414438221035</v>
+        <v>22.79785</v>
       </c>
       <c r="H9">
-        <v>22.3414438221035</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I9">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J9">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.416215301444109</v>
+        <v>0.4502283333333333</v>
       </c>
       <c r="N9">
-        <v>0.416215301444109</v>
+        <v>1.350685</v>
       </c>
       <c r="O9">
-        <v>0.003030093637410986</v>
+        <v>0.002941859116219682</v>
       </c>
       <c r="P9">
-        <v>0.003030093637410986</v>
+        <v>0.002941859116219682</v>
       </c>
       <c r="Q9">
-        <v>9.298850775113435</v>
+        <v>10.26423800908333</v>
       </c>
       <c r="R9">
-        <v>9.298850775113435</v>
+        <v>92.37814208174998</v>
       </c>
       <c r="S9">
-        <v>0.0005555519768195848</v>
+        <v>0.0005271214382190345</v>
       </c>
       <c r="T9">
-        <v>0.0005555519768195848</v>
+        <v>0.0005271214382190345</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.3414438221035</v>
+        <v>22.79785</v>
       </c>
       <c r="H10">
-        <v>22.3414438221035</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I10">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J10">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8208683018731761</v>
+        <v>1.398212333333333</v>
       </c>
       <c r="N10">
-        <v>0.8208683018731761</v>
+        <v>4.194637</v>
       </c>
       <c r="O10">
-        <v>0.005976012438822547</v>
+        <v>0.009136128037020016</v>
       </c>
       <c r="P10">
-        <v>0.005976012438822547</v>
+        <v>0.009136128037020014</v>
       </c>
       <c r="Q10">
-        <v>18.33938305164506</v>
+        <v>31.87623504348333</v>
       </c>
       <c r="R10">
-        <v>18.33938305164506</v>
+        <v>286.88611539135</v>
       </c>
       <c r="S10">
-        <v>0.001095670933365281</v>
+        <v>0.001637008694289769</v>
       </c>
       <c r="T10">
-        <v>0.001095670933365281</v>
+        <v>0.001637008694289769</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.3414438221035</v>
+        <v>22.79785</v>
       </c>
       <c r="H11">
-        <v>22.3414438221035</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I11">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J11">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.90212473111223</v>
+        <v>2.666884333333333</v>
       </c>
       <c r="N11">
-        <v>1.90212473111223</v>
+        <v>8.000653</v>
       </c>
       <c r="O11">
-        <v>0.01384767937485165</v>
+        <v>0.01742582020512581</v>
       </c>
       <c r="P11">
-        <v>0.01384767937485165</v>
+        <v>0.0174258202051258</v>
       </c>
       <c r="Q11">
-        <v>42.49621282277761</v>
+        <v>60.79922899868333</v>
       </c>
       <c r="R11">
-        <v>42.49621282277761</v>
+        <v>547.1930609881499</v>
       </c>
       <c r="S11">
-        <v>0.002538900301984025</v>
+        <v>0.003122353262271687</v>
       </c>
       <c r="T11">
-        <v>0.002538900301984025</v>
+        <v>0.003122353262271687</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.3414438221035</v>
+        <v>22.79785</v>
       </c>
       <c r="H12">
-        <v>22.3414438221035</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I12">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J12">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.50975091545606</v>
+        <v>3.688331</v>
       </c>
       <c r="N12">
-        <v>3.50975091545606</v>
+        <v>11.064993</v>
       </c>
       <c r="O12">
-        <v>0.02555137660946587</v>
+        <v>0.02410010515253888</v>
       </c>
       <c r="P12">
-        <v>0.02555137660946587</v>
+        <v>0.02410010515253888</v>
       </c>
       <c r="Q12">
-        <v>78.41290290723789</v>
+        <v>84.08601688834999</v>
       </c>
       <c r="R12">
-        <v>78.41290290723789</v>
+        <v>756.77415199515</v>
       </c>
       <c r="S12">
-        <v>0.004684712581350868</v>
+        <v>0.004318249646693011</v>
       </c>
       <c r="T12">
-        <v>0.004684712581350868</v>
+        <v>0.004318249646693011</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.3414438221035</v>
+        <v>22.79785</v>
       </c>
       <c r="H13">
-        <v>22.3414438221035</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I13">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J13">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.08834296878114</v>
+        <v>2.274860333333333</v>
       </c>
       <c r="N13">
-        <v>2.08834296878114</v>
+        <v>6.824581</v>
       </c>
       <c r="O13">
-        <v>0.015203368834544</v>
+        <v>0.01486427688856368</v>
       </c>
       <c r="P13">
-        <v>0.015203368834544</v>
+        <v>0.01486427688856368</v>
       </c>
       <c r="Q13">
-        <v>46.65659711830868</v>
+        <v>51.86192465028333</v>
       </c>
       <c r="R13">
-        <v>46.65659711830868</v>
+        <v>466.75732185255</v>
       </c>
       <c r="S13">
-        <v>0.002787458943864505</v>
+        <v>0.002663376695500651</v>
       </c>
       <c r="T13">
-        <v>0.002787458943864505</v>
+        <v>0.002663376695500651</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.52005426958975</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H14">
-        <v>9.52005426958975</v>
+        <v>35.381567</v>
       </c>
       <c r="I14">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J14">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>128.6232388238</v>
+        <v>142.563596</v>
       </c>
       <c r="N14">
-        <v>128.6232388238</v>
+        <v>427.690788</v>
       </c>
       <c r="O14">
-        <v>0.936391469104905</v>
+        <v>0.9315318106005318</v>
       </c>
       <c r="P14">
-        <v>0.936391469104905</v>
+        <v>0.9315318106005319</v>
       </c>
       <c r="Q14">
-        <v>1224.500213932979</v>
+        <v>1681.374474544977</v>
       </c>
       <c r="R14">
-        <v>1224.500213932979</v>
+        <v>15132.37027090479</v>
       </c>
       <c r="S14">
-        <v>0.07315672989258962</v>
+        <v>0.08634723107770895</v>
       </c>
       <c r="T14">
-        <v>0.07315672989258962</v>
+        <v>0.08634723107770896</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.52005426958975</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H15">
-        <v>9.52005426958975</v>
+        <v>35.381567</v>
       </c>
       <c r="I15">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J15">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.416215301444109</v>
+        <v>0.4502283333333333</v>
       </c>
       <c r="N15">
-        <v>0.416215301444109</v>
+        <v>1.350685</v>
       </c>
       <c r="O15">
-        <v>0.003030093637410986</v>
+        <v>0.002941859116219682</v>
       </c>
       <c r="P15">
-        <v>0.003030093637410986</v>
+        <v>0.002941859116219682</v>
       </c>
       <c r="Q15">
-        <v>3.962392257581575</v>
+        <v>5.309927980377221</v>
       </c>
       <c r="R15">
-        <v>3.962392257581575</v>
+        <v>47.78935182339499</v>
       </c>
       <c r="S15">
-        <v>0.0002367297749874051</v>
+        <v>0.0002726921249662159</v>
       </c>
       <c r="T15">
-        <v>0.0002367297749874051</v>
+        <v>0.0002726921249662158</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.52005426958975</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H16">
-        <v>9.52005426958975</v>
+        <v>35.381567</v>
       </c>
       <c r="I16">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J16">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8208683018731761</v>
+        <v>1.398212333333333</v>
       </c>
       <c r="N16">
-        <v>0.8208683018731761</v>
+        <v>4.194637</v>
       </c>
       <c r="O16">
-        <v>0.005976012438822547</v>
+        <v>0.009136128037020016</v>
       </c>
       <c r="P16">
-        <v>0.005976012438822547</v>
+        <v>0.009136128037020014</v>
       </c>
       <c r="Q16">
-        <v>7.814710782018617</v>
+        <v>16.49031445068655</v>
       </c>
       <c r="R16">
-        <v>7.814710782018617</v>
+        <v>148.412830056179</v>
       </c>
       <c r="S16">
-        <v>0.0004668832878620751</v>
+        <v>0.0008468625008731961</v>
       </c>
       <c r="T16">
-        <v>0.0004668832878620751</v>
+        <v>0.0008468625008731959</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.52005426958975</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H17">
-        <v>9.52005426958975</v>
+        <v>35.381567</v>
       </c>
       <c r="I17">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J17">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.90212473111223</v>
+        <v>2.666884333333333</v>
       </c>
       <c r="N17">
-        <v>1.90212473111223</v>
+        <v>8.000653</v>
       </c>
       <c r="O17">
-        <v>0.01384767937485165</v>
+        <v>0.01742582020512581</v>
       </c>
       <c r="P17">
-        <v>0.01384767937485165</v>
+        <v>0.0174258202051258</v>
       </c>
       <c r="Q17">
-        <v>18.10833066771724</v>
+        <v>31.45284890702789</v>
       </c>
       <c r="R17">
-        <v>18.10833066771724</v>
+        <v>283.075640163251</v>
       </c>
       <c r="S17">
-        <v>0.001081866904056249</v>
+        <v>0.001615265637574512</v>
       </c>
       <c r="T17">
-        <v>0.001081866904056249</v>
+        <v>0.001615265637574512</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.52005426958975</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H18">
-        <v>9.52005426958975</v>
+        <v>35.381567</v>
       </c>
       <c r="I18">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J18">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.50975091545606</v>
+        <v>3.688331</v>
       </c>
       <c r="N18">
-        <v>3.50975091545606</v>
+        <v>11.064993</v>
       </c>
       <c r="O18">
-        <v>0.02555137660946587</v>
+        <v>0.02410010515253888</v>
       </c>
       <c r="P18">
-        <v>0.02555137660946587</v>
+        <v>0.02410010515253888</v>
       </c>
       <c r="Q18">
-        <v>33.413019187884</v>
+        <v>43.49964346489233</v>
       </c>
       <c r="R18">
-        <v>33.413019187884</v>
+        <v>391.496791184031</v>
       </c>
       <c r="S18">
-        <v>0.001996232578655746</v>
+        <v>0.002233930527033545</v>
       </c>
       <c r="T18">
-        <v>0.001996232578655746</v>
+        <v>0.002233930527033545</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.52005426958975</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H19">
-        <v>9.52005426958975</v>
+        <v>35.381567</v>
       </c>
       <c r="I19">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J19">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.08834296878114</v>
+        <v>2.274860333333333</v>
       </c>
       <c r="N19">
-        <v>2.08834296878114</v>
+        <v>6.824581</v>
       </c>
       <c r="O19">
-        <v>0.015203368834544</v>
+        <v>0.01486427688856368</v>
       </c>
       <c r="P19">
-        <v>0.015203368834544</v>
+        <v>0.01486427688856368</v>
       </c>
       <c r="Q19">
-        <v>19.88113839631263</v>
+        <v>26.82937443315855</v>
       </c>
       <c r="R19">
-        <v>19.88113839631263</v>
+        <v>241.464369898427</v>
       </c>
       <c r="S19">
-        <v>0.001187781802785247</v>
+        <v>0.00137782643243544</v>
       </c>
       <c r="T19">
-        <v>0.001187781802785247</v>
+        <v>0.00137782643243544</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.1044453012939</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H20">
-        <v>11.1044453012939</v>
+        <v>35.577784</v>
       </c>
       <c r="I20">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J20">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>128.6232388238</v>
+        <v>142.563596</v>
       </c>
       <c r="N20">
-        <v>128.6232388238</v>
+        <v>427.690788</v>
       </c>
       <c r="O20">
-        <v>0.936391469104905</v>
+        <v>0.9315318106005318</v>
       </c>
       <c r="P20">
-        <v>0.936391469104905</v>
+        <v>0.9315318106005319</v>
       </c>
       <c r="Q20">
-        <v>1428.289719994149</v>
+        <v>1690.698941583755</v>
       </c>
       <c r="R20">
-        <v>1428.289719994149</v>
+        <v>15216.29047425379</v>
       </c>
       <c r="S20">
-        <v>0.08533196161588701</v>
+        <v>0.08682609044084501</v>
       </c>
       <c r="T20">
-        <v>0.08533196161588701</v>
+        <v>0.08682609044084501</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.1044453012939</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H21">
-        <v>11.1044453012939</v>
+        <v>35.577784</v>
       </c>
       <c r="I21">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J21">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.416215301444109</v>
+        <v>0.4502283333333333</v>
       </c>
       <c r="N21">
-        <v>0.416215301444109</v>
+        <v>1.350685</v>
       </c>
       <c r="O21">
-        <v>0.003030093637410986</v>
+        <v>0.002941859116219682</v>
       </c>
       <c r="P21">
-        <v>0.003030093637410986</v>
+        <v>0.002941859116219682</v>
       </c>
       <c r="Q21">
-        <v>4.621840048447661</v>
+        <v>5.339375464671111</v>
       </c>
       <c r="R21">
-        <v>4.621840048447661</v>
+        <v>48.05437918204</v>
       </c>
       <c r="S21">
-        <v>0.0002761279256497909</v>
+        <v>0.0002742044048119473</v>
       </c>
       <c r="T21">
-        <v>0.0002761279256497909</v>
+        <v>0.0002742044048119473</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.1044453012939</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H22">
-        <v>11.1044453012939</v>
+        <v>35.577784</v>
       </c>
       <c r="I22">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J22">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.8208683018731761</v>
+        <v>1.398212333333333</v>
       </c>
       <c r="N22">
-        <v>0.8208683018731761</v>
+        <v>4.194637</v>
       </c>
       <c r="O22">
-        <v>0.005976012438822547</v>
+        <v>0.009136128037020016</v>
       </c>
       <c r="P22">
-        <v>0.005976012438822547</v>
+        <v>0.009136128037020014</v>
       </c>
       <c r="Q22">
-        <v>9.115287157716693</v>
+        <v>16.58176546048978</v>
       </c>
       <c r="R22">
-        <v>9.115287157716693</v>
+        <v>149.235889144408</v>
       </c>
       <c r="S22">
-        <v>0.000544585123712334</v>
+        <v>0.000851558980803942</v>
       </c>
       <c r="T22">
-        <v>0.000544585123712334</v>
+        <v>0.0008515589808039418</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.1044453012939</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H23">
-        <v>11.1044453012939</v>
+        <v>35.577784</v>
       </c>
       <c r="I23">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J23">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.90212473111223</v>
+        <v>2.666884333333333</v>
       </c>
       <c r="N23">
-        <v>1.90212473111223</v>
+        <v>8.000653</v>
       </c>
       <c r="O23">
-        <v>0.01384767937485165</v>
+        <v>0.01742582020512581</v>
       </c>
       <c r="P23">
-        <v>0.01384767937485165</v>
+        <v>0.0174258202051258</v>
       </c>
       <c r="Q23">
-        <v>21.12204003287412</v>
+        <v>31.62727825477245</v>
       </c>
       <c r="R23">
-        <v>21.12204003287412</v>
+        <v>284.645504292952</v>
       </c>
       <c r="S23">
-        <v>0.001261918421804385</v>
+        <v>0.001624223482138264</v>
       </c>
       <c r="T23">
-        <v>0.001261918421804385</v>
+        <v>0.001624223482138264</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.1044453012939</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H24">
-        <v>11.1044453012939</v>
+        <v>35.577784</v>
       </c>
       <c r="I24">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J24">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.50975091545606</v>
+        <v>3.688331</v>
       </c>
       <c r="N24">
-        <v>3.50975091545606</v>
+        <v>11.064993</v>
       </c>
       <c r="O24">
-        <v>0.02555137660946587</v>
+        <v>0.02410010515253888</v>
       </c>
       <c r="P24">
-        <v>0.02555137660946587</v>
+        <v>0.02410010515253888</v>
       </c>
       <c r="Q24">
-        <v>38.97383706184801</v>
+        <v>43.74088121283467</v>
       </c>
       <c r="R24">
-        <v>38.97383706184801</v>
+        <v>393.667930915512</v>
       </c>
       <c r="S24">
-        <v>0.002328458940528587</v>
+        <v>0.002246319326721896</v>
       </c>
       <c r="T24">
-        <v>0.002328458940528587</v>
+        <v>0.002246319326721896</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.1044453012939</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H25">
-        <v>11.1044453012939</v>
+        <v>35.577784</v>
       </c>
       <c r="I25">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J25">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.08834296878114</v>
+        <v>2.274860333333333</v>
       </c>
       <c r="N25">
-        <v>2.08834296878114</v>
+        <v>6.824581</v>
       </c>
       <c r="O25">
-        <v>0.015203368834544</v>
+        <v>0.01486427688856368</v>
       </c>
       <c r="P25">
-        <v>0.015203368834544</v>
+        <v>0.01486427688856368</v>
       </c>
       <c r="Q25">
-        <v>23.18989026717189</v>
+        <v>26.97816318983378</v>
       </c>
       <c r="R25">
-        <v>23.18989026717189</v>
+        <v>242.803468708504</v>
       </c>
       <c r="S25">
-        <v>0.001385460385560325</v>
+        <v>0.001385467500709584</v>
       </c>
       <c r="T25">
-        <v>0.001385460385560325</v>
+        <v>0.001385467500709584</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>70.10231750422879</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H26">
-        <v>70.10231750422879</v>
+        <v>213.928471</v>
       </c>
       <c r="I26">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J26">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>128.6232388238</v>
+        <v>142.563596</v>
       </c>
       <c r="N26">
-        <v>128.6232388238</v>
+        <v>427.690788</v>
       </c>
       <c r="O26">
-        <v>0.936391469104905</v>
+        <v>0.9315318106005318</v>
       </c>
       <c r="P26">
-        <v>0.936391469104905</v>
+        <v>0.9315318106005319</v>
       </c>
       <c r="Q26">
-        <v>9016.787126448275</v>
+        <v>10166.13737084724</v>
       </c>
       <c r="R26">
-        <v>9016.787126448275</v>
+        <v>91495.23633762515</v>
       </c>
       <c r="S26">
-        <v>0.5387003226319238</v>
+        <v>0.5220834656514212</v>
       </c>
       <c r="T26">
-        <v>0.5387003226319238</v>
+        <v>0.5220834656514214</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>70.10231750422879</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H27">
-        <v>70.10231750422879</v>
+        <v>213.928471</v>
       </c>
       <c r="I27">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J27">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.416215301444109</v>
+        <v>0.4502283333333333</v>
       </c>
       <c r="N27">
-        <v>0.416215301444109</v>
+        <v>1.350685</v>
       </c>
       <c r="O27">
-        <v>0.003030093637410986</v>
+        <v>0.002941859116219682</v>
       </c>
       <c r="P27">
-        <v>0.003030093637410986</v>
+        <v>0.002941859116219682</v>
       </c>
       <c r="Q27">
-        <v>29.17765721195323</v>
+        <v>32.1055529836261</v>
       </c>
       <c r="R27">
-        <v>29.17765721195323</v>
+        <v>288.949976852635</v>
       </c>
       <c r="S27">
-        <v>0.00174319445865794</v>
+        <v>0.001648785350512132</v>
       </c>
       <c r="T27">
-        <v>0.00174319445865794</v>
+        <v>0.001648785350512132</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>70.10231750422879</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H28">
-        <v>70.10231750422879</v>
+        <v>213.928471</v>
       </c>
       <c r="I28">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J28">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.8208683018731761</v>
+        <v>1.398212333333333</v>
       </c>
       <c r="N28">
-        <v>0.8208683018731761</v>
+        <v>4.194637</v>
       </c>
       <c r="O28">
-        <v>0.005976012438822547</v>
+        <v>0.009136128037020016</v>
       </c>
       <c r="P28">
-        <v>0.005976012438822547</v>
+        <v>0.009136128037020014</v>
       </c>
       <c r="Q28">
-        <v>57.54477032707052</v>
+        <v>99.70580886778077</v>
       </c>
       <c r="R28">
-        <v>57.54477032707052</v>
+        <v>897.3522798100271</v>
       </c>
       <c r="S28">
-        <v>0.003437963645614371</v>
+        <v>0.005120406339239836</v>
       </c>
       <c r="T28">
-        <v>0.003437963645614371</v>
+        <v>0.005120406339239837</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>70.10231750422879</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H29">
-        <v>70.10231750422879</v>
+        <v>213.928471</v>
       </c>
       <c r="I29">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J29">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.90212473111223</v>
+        <v>2.666884333333333</v>
       </c>
       <c r="N29">
-        <v>1.90212473111223</v>
+        <v>8.000653</v>
       </c>
       <c r="O29">
-        <v>0.01384767937485165</v>
+        <v>0.01742582020512581</v>
       </c>
       <c r="P29">
-        <v>0.01384767937485165</v>
+        <v>0.0174258202051258</v>
       </c>
       <c r="Q29">
-        <v>133.3433518330754</v>
+        <v>190.1741625879514</v>
       </c>
       <c r="R29">
-        <v>133.3433518330754</v>
+        <v>1711.567463291563</v>
       </c>
       <c r="S29">
-        <v>0.007966485805415105</v>
+        <v>0.009766421823690159</v>
       </c>
       <c r="T29">
-        <v>0.007966485805415105</v>
+        <v>0.009766421823690159</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>70.10231750422879</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H30">
-        <v>70.10231750422879</v>
+        <v>213.928471</v>
       </c>
       <c r="I30">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J30">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.50975091545606</v>
+        <v>3.688331</v>
       </c>
       <c r="N30">
-        <v>3.50975091545606</v>
+        <v>11.064993</v>
       </c>
       <c r="O30">
-        <v>0.02555137660946587</v>
+        <v>0.02410010515253888</v>
       </c>
       <c r="P30">
-        <v>0.02555137660946587</v>
+        <v>0.02410010515253888</v>
       </c>
       <c r="Q30">
-        <v>246.0416730360584</v>
+        <v>263.0130037906337</v>
       </c>
       <c r="R30">
-        <v>246.0416730360584</v>
+        <v>2367.117034115703</v>
       </c>
       <c r="S30">
-        <v>0.01469955171245478</v>
+        <v>0.01350707112459181</v>
       </c>
       <c r="T30">
-        <v>0.01469955171245478</v>
+        <v>0.01350707112459181</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>70.10231750422879</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H31">
-        <v>70.10231750422879</v>
+        <v>213.928471</v>
       </c>
       <c r="I31">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J31">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.08834296878114</v>
+        <v>2.274860333333333</v>
       </c>
       <c r="N31">
-        <v>2.08834296878114</v>
+        <v>6.824581</v>
       </c>
       <c r="O31">
-        <v>0.015203368834544</v>
+        <v>0.01486427688856368</v>
       </c>
       <c r="P31">
-        <v>0.015203368834544</v>
+        <v>0.01486427688856368</v>
       </c>
       <c r="Q31">
-        <v>146.3976818552192</v>
+        <v>162.2191309495168</v>
       </c>
       <c r="R31">
-        <v>146.3976818552192</v>
+        <v>1459.972178545651</v>
       </c>
       <c r="S31">
-        <v>0.008746405714364155</v>
+        <v>0.00833078710149549</v>
       </c>
       <c r="T31">
-        <v>0.008746405714364155</v>
+        <v>0.008330787101495492</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>7.44770387907695</v>
+        <v>8.019912</v>
       </c>
       <c r="H32">
-        <v>7.44770387907695</v>
+        <v>24.059736</v>
       </c>
       <c r="I32">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="J32">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>128.6232388238</v>
+        <v>142.563596</v>
       </c>
       <c r="N32">
-        <v>128.6232388238</v>
+        <v>427.690788</v>
       </c>
       <c r="O32">
-        <v>0.936391469104905</v>
+        <v>0.9315318106005318</v>
       </c>
       <c r="P32">
-        <v>0.936391469104905</v>
+        <v>0.9315318106005319</v>
       </c>
       <c r="Q32">
-        <v>957.9477947274561</v>
+        <v>1143.347494323552</v>
       </c>
       <c r="R32">
-        <v>957.9477947274561</v>
+        <v>10290.12744891197</v>
       </c>
       <c r="S32">
-        <v>0.05723178099331399</v>
+        <v>0.05871677713032532</v>
       </c>
       <c r="T32">
-        <v>0.05723178099331399</v>
+        <v>0.05871677713032532</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>7.44770387907695</v>
+        <v>8.019912</v>
       </c>
       <c r="H33">
-        <v>7.44770387907695</v>
+        <v>24.059736</v>
       </c>
       <c r="I33">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="J33">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.416215301444109</v>
+        <v>0.4502283333333333</v>
       </c>
       <c r="N33">
-        <v>0.416215301444109</v>
+        <v>1.350685</v>
       </c>
       <c r="O33">
-        <v>0.003030093637410986</v>
+        <v>0.002941859116219682</v>
       </c>
       <c r="P33">
-        <v>0.003030093637410986</v>
+        <v>0.002941859116219682</v>
       </c>
       <c r="Q33">
-        <v>3.099848315096473</v>
+        <v>3.61079161324</v>
       </c>
       <c r="R33">
-        <v>3.099848315096473</v>
+        <v>32.49712451916</v>
       </c>
       <c r="S33">
-        <v>0.0001851978164765954</v>
+        <v>0.0001854327293069344</v>
       </c>
       <c r="T33">
-        <v>0.0001851978164765954</v>
+        <v>0.0001854327293069344</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>7.44770387907695</v>
+        <v>8.019912</v>
       </c>
       <c r="H34">
-        <v>7.44770387907695</v>
+        <v>24.059736</v>
       </c>
       <c r="I34">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="J34">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.8208683018731761</v>
+        <v>1.398212333333333</v>
       </c>
       <c r="N34">
-        <v>0.8208683018731761</v>
+        <v>4.194637</v>
       </c>
       <c r="O34">
-        <v>0.005976012438822547</v>
+        <v>0.009136128037020016</v>
       </c>
       <c r="P34">
-        <v>0.005976012438822547</v>
+        <v>0.009136128037020014</v>
       </c>
       <c r="Q34">
-        <v>6.113584036072162</v>
+        <v>11.213539870648</v>
       </c>
       <c r="R34">
-        <v>6.113584036072162</v>
+        <v>100.921858835832</v>
       </c>
       <c r="S34">
-        <v>0.0003652509088308402</v>
+        <v>0.0005758729736110576</v>
       </c>
       <c r="T34">
-        <v>0.0003652509088308402</v>
+        <v>0.0005758729736110575</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>7.44770387907695</v>
+        <v>8.019912</v>
       </c>
       <c r="H35">
-        <v>7.44770387907695</v>
+        <v>24.059736</v>
       </c>
       <c r="I35">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="J35">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.90212473111223</v>
+        <v>2.666884333333333</v>
       </c>
       <c r="N35">
-        <v>1.90212473111223</v>
+        <v>8.000653</v>
       </c>
       <c r="O35">
-        <v>0.01384767937485165</v>
+        <v>0.01742582020512581</v>
       </c>
       <c r="P35">
-        <v>0.01384767937485165</v>
+        <v>0.0174258202051258</v>
       </c>
       <c r="Q35">
-        <v>14.16646173839275</v>
+        <v>21.388177667512</v>
       </c>
       <c r="R35">
-        <v>14.16646173839275</v>
+        <v>192.493599007608</v>
       </c>
       <c r="S35">
-        <v>0.0008463632779618512</v>
+        <v>0.001098392979878886</v>
       </c>
       <c r="T35">
-        <v>0.0008463632779618512</v>
+        <v>0.001098392979878885</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>7.44770387907695</v>
+        <v>8.019912</v>
       </c>
       <c r="H36">
-        <v>7.44770387907695</v>
+        <v>24.059736</v>
       </c>
       <c r="I36">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="J36">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.50975091545606</v>
+        <v>3.688331</v>
       </c>
       <c r="N36">
-        <v>3.50975091545606</v>
+        <v>11.064993</v>
       </c>
       <c r="O36">
-        <v>0.02555137660946587</v>
+        <v>0.02410010515253888</v>
       </c>
       <c r="P36">
-        <v>0.02555137660946587</v>
+        <v>0.02410010515253888</v>
       </c>
       <c r="Q36">
-        <v>26.13958550763597</v>
+        <v>29.580090046872</v>
       </c>
       <c r="R36">
-        <v>26.13958550763597</v>
+        <v>266.2208104218481</v>
       </c>
       <c r="S36">
-        <v>0.001561687433556496</v>
+        <v>0.001519089833493468</v>
       </c>
       <c r="T36">
-        <v>0.001561687433556496</v>
+        <v>0.001519089833493468</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>7.44770387907695</v>
+        <v>8.019912</v>
       </c>
       <c r="H37">
-        <v>7.44770387907695</v>
+        <v>24.059736</v>
       </c>
       <c r="I37">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="J37">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.08834296878114</v>
+        <v>2.274860333333333</v>
       </c>
       <c r="N37">
-        <v>2.08834296878114</v>
+        <v>6.824581</v>
       </c>
       <c r="O37">
-        <v>0.015203368834544</v>
+        <v>0.01486427688856368</v>
       </c>
       <c r="P37">
-        <v>0.015203368834544</v>
+        <v>0.01486427688856368</v>
       </c>
       <c r="Q37">
-        <v>15.55336002943437</v>
+        <v>18.244179685624</v>
       </c>
       <c r="R37">
-        <v>15.55336002943437</v>
+        <v>164.197617170616</v>
       </c>
       <c r="S37">
-        <v>0.0009292223436539204</v>
+        <v>0.0009369325055110907</v>
       </c>
       <c r="T37">
-        <v>0.0009292223436539204</v>
+        <v>0.0009369325055110907</v>
       </c>
     </row>
   </sheetData>
